--- a/nr-mv-MS/ig/StructureDefinition-as-person.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-person.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1474,21 +1471,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1837,7 +1819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1951,7 +1933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2065,7 +2047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2177,7 +2159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2289,7 +2271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2424,7 +2406,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>77</v>
@@ -2517,7 +2499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2631,7 +2613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2745,7 +2727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2859,7 +2841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>140</v>
       </c>
@@ -2973,7 +2955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>146</v>
       </c>
@@ -3087,7 +3069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -3201,7 +3183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>163</v>
       </c>
@@ -3315,7 +3297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -3429,7 +3411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>177</v>
       </c>
@@ -3543,7 +3525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
@@ -3657,7 +3639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>193</v>
       </c>
@@ -3788,7 +3770,7 @@
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
@@ -3902,7 +3884,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>77</v>
@@ -3995,7 +3977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>210</v>
       </c>
@@ -4111,7 +4093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>215</v>
       </c>
@@ -4244,7 +4226,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
@@ -4341,7 +4323,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>231</v>
       </c>
@@ -4453,7 +4435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>232</v>
       </c>
@@ -4567,7 +4549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4681,7 +4663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>238</v>
       </c>
@@ -4795,7 +4777,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>248</v>
       </c>
@@ -4911,7 +4893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>256</v>
       </c>
@@ -5025,7 +5007,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>265</v>
       </c>
@@ -5139,7 +5121,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>274</v>
       </c>
@@ -5251,7 +5233,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>283</v>
       </c>
@@ -5363,7 +5345,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>291</v>
       </c>
@@ -5496,7 +5478,7 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
@@ -5593,7 +5575,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>307</v>
       </c>
@@ -5705,7 +5687,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>308</v>
       </c>
@@ -5819,7 +5801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>309</v>
       </c>
@@ -5933,7 +5915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>314</v>
       </c>
@@ -6045,7 +6027,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>323</v>
       </c>
@@ -6161,7 +6143,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>331</v>
       </c>
@@ -6277,7 +6259,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>340</v>
       </c>
@@ -6391,7 +6373,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>346</v>
       </c>
@@ -6522,7 +6504,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6638,7 +6620,7 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -6735,7 +6717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>369</v>
       </c>
@@ -6870,7 +6852,7 @@
         <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>77</v>
@@ -6963,7 +6945,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>383</v>
       </c>
@@ -7096,7 +7078,7 @@
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>89</v>
@@ -7191,7 +7173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>396</v>
       </c>
@@ -7301,7 +7283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>402</v>
       </c>
@@ -7413,7 +7395,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>403</v>
       </c>
@@ -7527,7 +7509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>404</v>
       </c>
@@ -7643,7 +7625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>409</v>
       </c>
@@ -7755,7 +7737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>414</v>
       </c>
@@ -7888,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -7981,7 +7963,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>422</v>
       </c>
@@ -8093,7 +8075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>423</v>
       </c>
@@ -8207,7 +8189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>424</v>
       </c>
@@ -8323,7 +8305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>425</v>
       </c>
@@ -8435,7 +8417,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>427</v>
       </c>
@@ -8548,24 +8530,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/nr-mv-MS/ig/StructureDefinition-as-person.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="383">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,7 +323,248 @@
 </t>
   </si>
   <si>
-    <t>Person.meta.id</t>
+    <t>Person.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Person.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Person.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Person.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Person.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Person.extension:as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t>as-ext-person-birth-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
+</t>
+  </si>
+  <si>
+    <t>AS Person Birth Place Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>PersonnePhysique.lieuNaissance</t>
+  </si>
+  <si>
+    <t>Person.extension:as-ext-person-deceased-date-time</t>
+  </si>
+  <si>
+    <t>as-ext-person-deceased-date-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceasedDateTime}
+</t>
+  </si>
+  <si>
+    <t>AS Person Deceased Date Time Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
+  </si>
+  <si>
+    <t>PersonnePhysique.dateDeces</t>
+  </si>
+  <si>
+    <t>Person.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Person.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>A human identifier for this person</t>
+  </si>
+  <si>
+    <t>Identifier for a person within a particular scope.</t>
+  </si>
+  <si>
+    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
+  </si>
+  <si>
+    <t>.plays:Role(classCode='IDENT').id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Person.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+</t>
+  </si>
+  <si>
+    <t>Nom issu de l’état-civil.</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>Person.name.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -342,15 +583,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Person.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
+    <t>Person.name.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -359,386 +592,10 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Person.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
-  </si>
-  <si>
-    <t>Person.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Person.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Person.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Person.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Person.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Person.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Person.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Person.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Person.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Person.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Person.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t>as-ext-person-birth-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-birth-place}
-</t>
-  </si>
-  <si>
-    <t>AS Person Birth Place Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.lieuNaissance</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-deceased-date-time</t>
-  </si>
-  <si>
-    <t>as-ext-person-deceased-date-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceasedDateTime}
-</t>
-  </si>
-  <si>
-    <t>AS Person Deceased Date Time Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
-  </si>
-  <si>
-    <t>PersonnePhysique.dateDeces</t>
-  </si>
-  <si>
-    <t>Person.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Person.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>A human identifier for this person</t>
-  </si>
-  <si>
-    <t>Identifier for a person within a particular scope.</t>
-  </si>
-  <si>
-    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the person. Examples are national person identifier and local identifier.</t>
-  </si>
-  <si>
-    <t>.plays:Role(classCode='IDENT').id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Person.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
-</t>
-  </si>
-  <si>
-    <t>Nom issu de l’état-civil.</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
-  </si>
-  <si>
-    <t>Person may have multiple names with different uses or applicable periods.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>Person.name.id</t>
-  </si>
-  <si>
-    <t>Person.name.extension</t>
   </si>
   <si>
     <t>Person.name.extension:assemblyOrder</t>
@@ -874,6 +731,9 @@
   </si>
   <si>
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>Civilités des personnes physiques du RASS</t>
@@ -1647,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2181,10 +2041,10 @@
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>102</v>
@@ -2195,7 +2055,9 @@
       <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>77</v>
@@ -2244,7 +2106,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2256,13 +2118,13 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2280,14 +2142,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2299,16 +2161,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2334,49 +2196,49 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2387,16 +2249,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2415,15 +2275,17 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>77</v>
@@ -2472,25 +2334,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2501,21 +2363,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -2524,19 +2386,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2586,25 +2448,25 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2615,10 +2477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2629,7 +2491,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -2638,20 +2500,18 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2688,31 +2548,29 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2729,12 +2587,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2752,20 +2612,18 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2814,22 +2672,22 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2843,12 +2701,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2857,7 +2717,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2866,20 +2726,18 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -2928,7 +2786,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2937,13 +2795,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -2957,14 +2815,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2977,24 +2835,26 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3018,13 +2878,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -3042,7 +2902,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3054,13 +2914,13 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3071,10 +2931,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3094,21 +2954,21 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3132,31 +2992,31 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3174,21 +3034,21 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3199,30 +3059,32 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3270,13 +3132,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3288,21 +3150,21 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3325,17 +3187,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3360,13 +3220,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3384,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3396,13 +3256,13 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3413,21 +3273,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3439,16 +3299,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3486,37 +3346,37 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3527,21 +3387,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3553,17 +3415,15 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3612,7 +3472,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3624,13 +3484,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3641,10 +3501,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,28 +3515,32 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3700,65 +3564,63 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3776,19 +3638,23 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3836,45 +3702,43 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3890,18 +3754,20 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3950,43 +3816,43 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3999,26 +3865,24 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4066,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4078,27 +3942,27 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4109,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4118,21 +3982,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4156,13 +4018,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4180,7 +4042,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4195,24 +4057,24 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4235,20 +4097,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4272,13 +4130,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4296,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4314,21 +4172,21 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4348,19 +4206,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4408,7 +4268,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4420,31 +4280,31 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4460,21 +4320,23 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4510,19 +4372,19 @@
         <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4534,31 +4396,29 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4579,13 +4439,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4636,25 +4496,25 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4665,46 +4525,44 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4728,63 +4586,67 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4793,7 +4655,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4802,23 +4664,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4866,47 +4724,47 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -4921,17 +4779,15 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4956,13 +4812,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4980,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4989,41 +4845,41 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5035,18 +4891,20 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5094,13 +4952,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5109,24 +4967,24 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5143,22 +5001,26 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5182,13 +5044,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5206,13 +5068,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5221,24 +5083,24 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5249,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5261,15 +5123,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5294,13 +5158,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5318,13 +5182,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5336,21 +5200,21 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>181</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5373,18 +5237,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5432,7 +5294,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5450,21 +5312,21 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5475,7 +5337,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5487,19 +5349,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5524,13 +5386,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5548,13 +5410,13 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5563,24 +5425,24 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5600,19 +5462,23 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5660,7 +5526,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5672,31 +5538,31 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5715,18 +5581,20 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5762,19 +5630,19 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5786,31 +5654,29 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5819,7 +5685,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5831,13 +5697,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5888,39 +5754,39 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5928,7 +5794,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5943,16 +5809,18 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5976,13 +5844,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6000,7 +5868,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6009,7 +5877,7 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
@@ -6018,21 +5886,21 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6040,7 +5908,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6049,25 +5917,23 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6116,7 +5982,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6134,21 +6000,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6159,32 +6025,28 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6208,37 +6070,35 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
@@ -6250,21 +6110,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6284,20 +6144,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>178</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6346,7 +6204,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6358,38 +6216,38 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6398,18 +6256,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6458,74 +6318,74 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>354</v>
+        <v>158</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6550,13 +6410,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6574,39 +6434,39 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6614,7 +6474,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -6626,23 +6486,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6690,10 +6546,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>88</v>
@@ -6705,16 +6561,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6733,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6745,20 +6601,16 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6782,13 +6634,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6664,7 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6824,23 +6676,25 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6849,7 +6703,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6861,13 +6715,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6918,13 +6772,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6936,21 +6790,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6970,21 +6824,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
+        <v>179</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7032,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>180</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7044,13 +6896,13 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>181</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7061,44 +6913,44 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7146,28 +6998,28 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>186</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>181</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7175,14 +7027,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7195,22 +7047,26 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7246,17 +7102,19 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7268,13 +7126,13 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>131</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7285,10 +7143,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7296,7 +7154,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7311,13 +7169,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>103</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>104</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7368,10 +7226,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -7380,13 +7238,13 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7397,21 +7255,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7423,17 +7281,15 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7458,13 +7314,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7482,1050 +7338,30 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>106</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
